--- a/biology/Botanique/William_Crawford_Williamson/William_Crawford_Williamson.xlsx
+++ b/biology/Botanique/William_Crawford_Williamson/William_Crawford_Williamson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Crawford Williamson, né à Scarborough (Yorkshire du Nord) le 24 novembre 1816 et mort à Clapham (Londres) le 23 juin 1895, est un naturaliste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Williamson naît à Scarborough. Son père, John Williamson, après avoir débuté comme jardinier est devenu naturaliste et a été le premier qui, avec William Bean, a exploré les couches fossilifères de la côte du Yorkshire. Il est conservateur du musée d'histoire naturelle de Scarborough et le jeune Williamson est ainsi immergé dans un milieu scientifique. Par exemple William Smith, le « père de la géologie anglaise », a vécu deux ans dans la maison Williamson. Le grand-père maternel de William est lapidaire, ce qui lui permet d'apprendre le travail de la découpe des pierres qui lui sera utile lors de ses études sur la structure des plantes fossiles.
 Williamson commence très tôt à contribuer à la science. Peu après ses 16 ans il publie un article sur les espèces rares d'oiseaux du Yorkshire et en 1834 un article présenté à la Geological Society of London, son premier mémoire sur les fossiles du Mésozoïque de son comté natal. Dans le même temps il assiste John Lindley et William Hutton pour la préparation de Fossil Flora of Great Britain -- La flore fossile de Grande-Bretagne. Pendant ses études de médecine il trouve le temps d'être conservateur du musée d'histoire naturelle de Manchester. Après avoir terminé ses études à l'University College en 1841 il retourne à Manchester pour pratiquer sa profession avec succès. Quand l'Owen's College est fondé dans sa ville en 1851 il y devient professeur d'histoire naturelle avec la fonction d'enseigner la géologie, la zoologie et la botanique. En vue d'une nécessaire division du travail de nouveaux professeurs sont engagés mais il continue à enseigner la botanique. Peu après il se retire à Clapham où il meurt en 1895.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> (en) « William Crawford Williamson », dans Encyclopædia Britannica [détail de l’édition], 1911 (lire sur Wikisource).
 </t>
